--- a/models/type3and5and10/Best_VotingEnsemble/ConfusionMatrix.xlsx
+++ b/models/type3and5and10/Best_VotingEnsemble/ConfusionMatrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\pfHRP_MLModel\models\type3and5and10\Best_VotingEnsemble\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF1DAA0-E4BE-4318-B670-2F0C5AE4B1EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BFEEE1-E6DE-4567-A4F5-4EE9C7C2EAC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21600" yWindow="5880" windowWidth="14325" windowHeight="8010" xr2:uid="{58F82BB8-7E1E-49C1-9D4C-A63F24EF3551}"/>
+    <workbookView xWindow="14475" yWindow="3600" windowWidth="14325" windowHeight="8010" xr2:uid="{58F82BB8-7E1E-49C1-9D4C-A63F24EF3551}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,16 +41,16 @@
     <t>True Label</t>
   </si>
   <si>
-    <t>18 (0.8571)</t>
-  </si>
-  <si>
-    <t>10 (0.7143)</t>
-  </si>
-  <si>
-    <t>3 (0.1429)</t>
-  </si>
-  <si>
-    <t>4 (0.2857)</t>
+    <t>17 (0.8095)</t>
+  </si>
+  <si>
+    <t>4 (0.1905)</t>
+  </si>
+  <si>
+    <t>1 (0.0714)</t>
+  </si>
+  <si>
+    <t>13 (0.9286)</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +450,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -459,10 +459,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
